--- a/output/Transitions Rule/tri_facilities/transitions_nearby_tri_facilities.xlsx
+++ b/output/Transitions Rule/tri_facilities/transitions_nearby_tri_facilities.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Facility</t>
   </si>
@@ -32,16 +32,64 @@
     <t xml:space="preserve">Neighboring TRI Facilities within a 10-Mile Radius</t>
   </si>
   <si>
+    <t xml:space="preserve">Chemours El Dorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Dorado, AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Dimas Plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Dimas, CA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CF Industries Nitrogen LLC-Port Neal Nitrogen Complex</t>
   </si>
   <si>
     <t xml:space="preserve">Sergeant Bluff, IA</t>
   </si>
   <si>
-    <t xml:space="preserve">San Dimas Plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Dimas, CA</t>
+    <t xml:space="preserve">Linde - Whiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Chicago, IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR PRODUCTS &amp; CHEMICALS INC - Geismar SMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geismar, LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC Manvel Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manvel, TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Products Port Arthur Facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Arthur, TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSP CO2 Plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tad, WV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linde Decatur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decatur, AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALAMCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stockton, CA</t>
   </si>
   <si>
     <t xml:space="preserve">Diversified CPC International</t>
@@ -50,10 +98,10 @@
     <t xml:space="preserve">Channahon, IL</t>
   </si>
   <si>
-    <t xml:space="preserve">HC Manvel Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manvel, TX</t>
+    <t xml:space="preserve">Aeropres-Sibley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sibley, LA</t>
   </si>
   <si>
     <t xml:space="preserve">Chemours-Corpus Christi</t>
@@ -62,37 +110,7 @@
     <t xml:space="preserve">Gregory, TX</t>
   </si>
   <si>
-    <t xml:space="preserve">AIR PRODUCTS &amp; CHEMICALS INC - Geismar SMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geismar, LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linde Decatur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decatur, AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemours El Dorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Dorado, AR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Honeywell-Geismar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Products Port Arthur Facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Arthur, TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALAMCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stockton, CA</t>
   </si>
 </sst>
 </file>
@@ -455,13 +473,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +510,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -512,16 +530,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -532,16 +550,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +570,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -572,16 +590,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -591,17 +609,11 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -609,59 +621,111 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21</v>
+      </c>
+      <c r="E15" t="n">
+        <v>31</v>
+      </c>
+      <c r="F15" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
